--- a/biology/Botanique/Château_du_Moulin-à-Vent/Château_du_Moulin-à-Vent.xlsx
+++ b/biology/Botanique/Château_du_Moulin-à-Vent/Château_du_Moulin-à-Vent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_du_Moulin-%C3%A0-Vent</t>
+          <t>Château_du_Moulin-à-Vent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le domaine du Château du Moulin-à-Vent, appelé aussi Château des Thorins, est un domaine viticole situé à Romanèche-Thorins dans le département de Saône-et-Loire (71), aux limites méridionales de la région de Bourgogne, dans le vignoble du Beaujolais et l'appellation moulin-à-vent.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_du_Moulin-%C3%A0-Vent</t>
+          <t>Château_du_Moulin-à-Vent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine est au XVIIIe siècle la propriété d’une famille de magistrats mâconnais dont certains sont anoblis et choisissent les armes (blason d’or au chevron d’azur accompagné à senestre d’une étoile de même et en pointe d’un cerf élancé de gueules) qui sont encore visibles dans la cour du château.
 L’héritière du domaine ayant épousé en 1783 le roturier M. Pommier, les confiscations révolutionnaires ne perturbent pas la vie du château mais, quand en 1811, le jeune Alphonse de Lamartine tombe follement amoureux d’Henriette, leur fille, Madame de Lamartine, rêvant d’une bru aristocratique, s’oppose à leur mariage. Elle expédie son fils en Italie pour un an. À son retour, Henriette lui fermera sa porte et en épousera bientôt un autre.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_du_Moulin-%C3%A0-Vent</t>
+          <t>Château_du_Moulin-à-Vent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le moulin à vent, qui a donné son nom au domaine et à l'AOC, a été classé monument historique par arrêté du 29 août 1930[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le moulin à vent, qui a donné son nom au domaine et à l'AOC, a été classé monument historique par arrêté du 29 août 1930.
 </t>
         </is>
       </c>
